--- a/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4706D2E4-A877-BE41-B00E-AA18DD1E75C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BDA2F4-F7EF-F245-B661-86C25391E159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15420" yWindow="880" windowWidth="27640" windowHeight="16940" xr2:uid="{5D48EF89-BB98-4E48-8DF8-7E4C188E04C0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>dist_total (m)</t>
+  </si>
+  <si>
+    <t>Q(salt)_time</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -187,6 +190,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="19" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,12 +509,13 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -704,17 +710,24 @@
         <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>91.13</v>
+        <v>92.12</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="4">
-        <v>86.56</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.50399305555555551</v>
+      </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="8">
+        <v>0.50968749999999996</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">

--- a/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BDA2F4-F7EF-F245-B661-86C25391E159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B3239C-E25E-654A-B636-010932FE2A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="880" windowWidth="27640" windowHeight="16940" xr2:uid="{5D48EF89-BB98-4E48-8DF8-7E4C188E04C0}"/>
+    <workbookView xWindow="17940" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{5D48EF89-BB98-4E48-8DF8-7E4C188E04C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -128,7 +128,13 @@
     <t>dist_total (m)</t>
   </si>
   <si>
-    <t>Q(salt)_time</t>
+    <t>Q(salt)_l/s 2</t>
+  </si>
+  <si>
+    <t>Q(salt)_peak</t>
+  </si>
+  <si>
+    <t>Q(salt)_peak 2</t>
   </si>
 </sst>
 </file>
@@ -506,16 +512,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC7F2AF-AF7C-2442-A89B-8DEAEBF63509}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -551,18 +558,13 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <v>0.1203704</v>
-      </c>
-      <c r="C5">
-        <v>0.10833329999999999</v>
+      <c r="B5" s="6">
+        <v>0.1068376</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.1203704</v>
-      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -593,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="6">
-        <v>70.211500000000001</v>
+        <v>64.312669999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -601,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6">
-        <v>97.505880000000005</v>
+        <v>89.313910000000007</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -714,12 +716,12 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="4">
-        <v>88.7</v>
+        <v>86.56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7">
         <v>0.50399305555555551</v>
@@ -731,33 +733,55 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6">
+        <v>91.13</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>0.5394444444444445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C24" s="5">
         <v>86100</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B3239C-E25E-654A-B636-010932FE2A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5804FD-FA43-3D4A-8FAC-201243DC991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{5D48EF89-BB98-4E48-8DF8-7E4C188E04C0}"/>
+    <workbookView xWindow="13740" yWindow="2220" windowWidth="27640" windowHeight="16940" xr2:uid="{5D48EF89-BB98-4E48-8DF8-7E4C188E04C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -74,9 +74,6 @@
     <t>k600_m/d</t>
   </si>
   <si>
-    <t>DOC</t>
-  </si>
-  <si>
     <t>Colmillo</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>x50</t>
   </si>
   <si>
-    <t>Average k600 @xn10</t>
-  </si>
-  <si>
     <t>ER</t>
   </si>
   <si>
@@ -135,13 +129,31 @@
   </si>
   <si>
     <t>Q(salt)_peak 2</t>
+  </si>
+  <si>
+    <t>Background data @ -10m</t>
+  </si>
+  <si>
+    <t>Ave. CO2 ppm</t>
+  </si>
+  <si>
+    <t>Ave flux um/m2</t>
+  </si>
+  <si>
+    <t>Ave k600</t>
+  </si>
+  <si>
+    <t>TDN_mg/l</t>
+  </si>
+  <si>
+    <t>DOC mg/l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,13 +179,27 @@
       <name val="Monaco"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -198,6 +224,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="19" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC7F2AF-AF7C-2442-A89B-8DEAEBF63509}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,17 +566,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -556,13 +585,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6">
         <v>0.1068376</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -584,7 +613,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6">
         <v>8.1258149999999993</v>
@@ -608,24 +637,35 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>1.7849999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>8.6760000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
       <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -636,7 +676,7 @@
         <v>324.90537</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>333.38252</v>
@@ -647,7 +687,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4">
         <v>941.04399999999998</v>
@@ -690,18 +730,24 @@
         <v>1035.5003999999999</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
       <c r="C19">
         <v>76.23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
       </c>
       <c r="E19">
         <v>90.885000000000005</v>
@@ -711,79 +757,125 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" s="6">
         <v>92.12</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
       <c r="E20" s="4">
         <v>86.56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="7">
         <v>0.50399305555555551</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
       <c r="E21" s="8">
         <v>0.50968749999999996</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="6">
         <v>91.13</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
       <c r="E22" s="4">
         <v>88.7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
       <c r="E23" s="8">
         <v>0.5394444444444445</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="5">
         <v>86100</v>
       </c>
       <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="6">
+        <v>949.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.13109999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6">
+        <v>6.3959999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
+      <c r="B32" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5804FD-FA43-3D4A-8FAC-201243DC991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA74DAEB-FA07-FE49-B498-63C83EB25E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="2220" windowWidth="27640" windowHeight="16940" xr2:uid="{5D48EF89-BB98-4E48-8DF8-7E4C188E04C0}"/>
+    <workbookView xWindow="8200" yWindow="3660" windowWidth="27640" windowHeight="16940" xr2:uid="{5D48EF89-BB98-4E48-8DF8-7E4C188E04C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -113,9 +113,6 @@
     <t>velocity (m/s)</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
     <t>MethaneBottle_no</t>
   </si>
   <si>
@@ -134,26 +131,41 @@
     <t>Background data @ -10m</t>
   </si>
   <si>
-    <t>Ave. CO2 ppm</t>
-  </si>
-  <si>
     <t>Ave flux um/m2</t>
   </si>
   <si>
-    <t>Ave k600</t>
-  </si>
-  <si>
     <t>TDN_mg/l</t>
   </si>
   <si>
     <t>DOC mg/l</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (air)</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (water)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (air)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (water)</t>
+  </si>
+  <si>
+    <t>Ave k m/d</t>
+  </si>
+  <si>
+    <t>Ave k600 m/d</t>
+  </si>
+  <si>
+    <t>%diff in CO2 ppm during injection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +199,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -214,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -226,6 +245,7 @@
     <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC7F2AF-AF7C-2442-A89B-8DEAEBF63509}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,54 +597,51 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.1068376</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.54166666666666663</v>
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.6</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="6">
+        <v>8.1258149999999993</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6">
-        <v>8.1258149999999993</v>
-      </c>
+        <v>0.1068376</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6">
-        <v>64.312669999999997</v>
+        <v>61.801966499999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -632,12 +649,12 @@
         <v>11</v>
       </c>
       <c r="B10" s="6">
-        <v>89.313910000000007</v>
+        <v>85.827190000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>1.7849999999999999</v>
@@ -645,7 +662,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>8.6760000000000004E-2</v>
@@ -702,7 +719,7 @@
         <v>883.77679999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -719,7 +736,7 @@
         <v>1451.6188</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -736,7 +753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -753,7 +770,7 @@
         <v>90.885000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -770,9 +787,9 @@
         <v>86.56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -787,9 +804,9 @@
         <v>0.50968749999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -804,9 +821,9 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -819,9 +836,9 @@
         <v>0.5394444444444445</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -836,46 +853,104 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <f>(B16-B18)/AVERAGE(B16,B18)*100</f>
+        <v>2.6133423044575235</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>340.16579999999999</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="6">
+        <v>949.4</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="6">
+        <v>16.96</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="6">
+        <v>7.91</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="6">
-        <v>949.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="B33" s="6">
         <v>0.13109999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="6">
+        <v>4.5709999999999997</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6">
         <v>6.3959999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="B36" s="10"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B37" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA74DAEB-FA07-FE49-B498-63C83EB25E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB1853A-DE37-6249-BF68-4FCBAEFA9C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="3660" windowWidth="27640" windowHeight="16940" xr2:uid="{5D48EF89-BB98-4E48-8DF8-7E4C188E04C0}"/>
+    <workbookView xWindow="17220" yWindow="5920" windowWidth="27640" windowHeight="16940" xr2:uid="{5D48EF89-BB98-4E48-8DF8-7E4C188E04C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Slope</t>
-  </si>
-  <si>
     <t>time_start</t>
   </si>
   <si>
@@ -159,6 +156,15 @@
   </si>
   <si>
     <t>%diff in CO2 ppm during injection</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 25</t>
+  </si>
+  <si>
+    <t>slope btw 25 and 50</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 50</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -246,6 +252,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC7F2AF-AF7C-2442-A89B-8DEAEBF63509}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,371 +593,389 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.12799999999999984</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.54166666666666663</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.32800000000000012</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.6</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.22799999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6">
-        <v>8.1258149999999993</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.1068376</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6">
-        <v>61.801966499999999</v>
+        <v>8.1258149999999993</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6">
-        <v>85.827190000000002</v>
-      </c>
+        <v>0.1068376</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>1.7849999999999999</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>61.801966499999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>85.827190000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>8.6760000000000004E-2</v>
+      <c r="B13">
+        <v>1.7849999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3">
-        <v>324.90537</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
-        <v>333.38252</v>
-      </c>
-      <c r="E15" s="4">
-        <v>308.92746</v>
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>8.6760000000000004E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
-        <v>941.04399999999998</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1041.6721</v>
-      </c>
-      <c r="D16" s="4">
-        <v>458.64800000000002</v>
-      </c>
-      <c r="E16" s="4">
-        <v>883.77679999999998</v>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4">
-        <v>933.97450000000003</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1797.6025</v>
-      </c>
-      <c r="D17" s="4">
-        <v>991.76800000000003</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>324.90537</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>333.38252</v>
       </c>
       <c r="E17" s="4">
-        <v>1451.6188</v>
+        <v>308.92746</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>916.76850000000002</v>
+        <v>941.04399999999998</v>
       </c>
       <c r="C18" s="4">
-        <v>1035.5003999999999</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>13</v>
+        <v>1041.6721</v>
+      </c>
+      <c r="D18" s="4">
+        <v>458.64800000000002</v>
+      </c>
+      <c r="E18" s="4">
+        <v>883.77679999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>76.23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>90.885000000000005</v>
+        <v>5</v>
+      </c>
+      <c r="B19" s="4">
+        <v>933.97450000000003</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1797.6025</v>
+      </c>
+      <c r="D19" s="4">
+        <v>991.76800000000003</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1451.6188</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6">
-        <v>92.12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="4">
-        <v>86.56</v>
+        <v>6</v>
+      </c>
+      <c r="B20" s="4">
+        <v>916.76850000000002</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1035.5003999999999</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.50399305555555551</v>
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>76.23</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.50968749999999996</v>
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>90.885000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="6">
-        <v>91.13</v>
+        <v>92.12</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4">
-        <v>88.7</v>
+        <v>86.56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.50399305555555551</v>
+      </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="8">
-        <v>0.5394444444444445</v>
+        <v>0.50968749999999996</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="6">
+        <v>91.13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.5394444444444445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>86100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="5">
-        <v>86100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <f>(B16-B18)/AVERAGE(B16,B18)*100</f>
-        <v>2.6133423044575235</v>
-      </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>340.16579999999999</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="6">
-        <v>949.4</v>
-      </c>
-      <c r="G30" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <f>(B18-B20)/AVERAGE(B18,B20)*100</f>
+        <v>2.6133423044575235</v>
+      </c>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="6">
-        <v>16.96</v>
+      <c r="A31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>340.16579999999999</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="6">
-        <v>7.91</v>
+        <v>949.4</v>
       </c>
       <c r="G32" s="11"/>
-      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B33" s="6">
-        <v>0.13109999999999999</v>
+        <v>16.96</v>
       </c>
       <c r="G33" s="11"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="6">
-        <v>4.5709999999999997</v>
+        <v>7.91</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>6.3959999999999999</v>
+        <v>0.13109999999999999</v>
       </c>
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="B36" s="6">
+        <v>4.5709999999999997</v>
+      </c>
       <c r="G36" s="11"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="B37" s="6">
+        <v>6.3959999999999999</v>
+      </c>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB1853A-DE37-6249-BF68-4FCBAEFA9C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA5FC03-97E2-8E4F-8CFE-EF65403D669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="5920" windowWidth="27640" windowHeight="16940" xr2:uid="{5D48EF89-BB98-4E48-8DF8-7E4C188E04C0}"/>
+    <workbookView xWindow="5900" yWindow="4020" windowWidth="27640" windowHeight="16940" xr2:uid="{5D48EF89-BB98-4E48-8DF8-7E4C188E04C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>slope btw 0 and 50</t>
+  </si>
+  <si>
+    <t>Ave pressure kpa (air)</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -252,7 +255,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC7F2AF-AF7C-2442-A89B-8DEAEBF63509}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,7 +602,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3">
         <v>0.12799999999999984</v>
       </c>
     </row>
@@ -608,7 +610,7 @@
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>0.32800000000000012</v>
       </c>
     </row>
@@ -616,7 +618,7 @@
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>0.22799999999999998</v>
       </c>
     </row>
@@ -928,54 +930,64 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B34" s="6">
-        <v>7.91</v>
+        <v>64.48</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B35" s="6">
-        <v>0.13109999999999999</v>
+        <v>7.91</v>
       </c>
       <c r="G35" s="11"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B36" s="6">
-        <v>4.5709999999999997</v>
+        <v>0.13109999999999999</v>
       </c>
       <c r="G36" s="11"/>
-      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="6">
-        <v>6.3959999999999999</v>
+        <v>4.5709999999999997</v>
       </c>
       <c r="G37" s="11"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="B38" s="6">
+        <v>6.3959999999999999</v>
+      </c>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B40" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
